--- a/CPOS.BS.Web/File/ExcelTemplate/用户导入数据模板.xlsx
+++ b/CPOS.BS.Web/File/ExcelTemplate/用户导入数据模板.xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户登录名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周迅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>淮海路店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,7 +49,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台管理员</t>
+    <t>ZB001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌柜app角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理后台角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanmenu总部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌柜app角色</t>
+  </si>
+  <si>
+    <t>管理后台角色</t>
+  </si>
+  <si>
+    <t>店长APP</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>店员APP</t>
+  </si>
+  <si>
+    <t>店长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,23 +100,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZB001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌柜app角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理后台角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始密码</t>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,12 +157,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -151,17 +186,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,115 +502,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="4" customWidth="1"/>
-    <col min="6" max="7" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="22" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>111111</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1366668888</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>111111</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1399966666</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
         <v>111111</v>
       </c>
-      <c r="D2" s="1">
-        <v>1366668888</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="3">
+        <v>1399966666</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>111111</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1399966666</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>111111</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1399966666</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATA!$B$3:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATA!$C$3:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G51</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>